--- a/DateBase/orders/Dang Nguyen_2024-12-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-2.xlsx
@@ -607,6 +607,9 @@
       <c r="A21" t="str">
         <v>4</v>
       </c>
+      <c r="C21" t="str">
+        <v>452_粉吊鸟_pink hanging heliconia_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2024-12-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-2.xlsx
@@ -610,6 +610,9 @@
       <c r="C21" t="str">
         <v>452_粉吊鸟_pink hanging heliconia_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -671,7 +674,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01025101010254030508882554251515250</v>
+        <v>01025101010254030508882554251515257</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -614,9 +614,49 @@
         <v>7</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>173_朱丽叶_Juliet_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>667_大丽花 安吉丽娜_undefined_undefined_5stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>244_繁星_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L26"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -674,7 +714,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01025101010254030508882554251515257</v>
+        <v>01025101010254030508882554251515257510535</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-12-2.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-12-2.xlsx
@@ -716,6 +716,9 @@
       <c r="G2" t="str">
         <v>01025101010254030508882554251515257510535</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
